--- a/biology/Zoologie/Heteronychus_mosambicus/Heteronychus_mosambicus.xlsx
+++ b/biology/Zoologie/Heteronychus_mosambicus/Heteronychus_mosambicus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heteronychus mosambicus est une espèce d'insectes coléoptères de la famille des Scarabaeidae originaire d'Afrique.
-Ce coléoptère est un ravageur du riz, les adultes et les larves attaquent les racines des jeunes plants de moins de six semaines, provoquant leur pourrissement[2].
+Ce coléoptère est un ravageur du riz, les adultes et les larves attaquent les racines des jeunes plants de moins de six semaines, provoquant leur pourrissement.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>selon GBIF       (26 mai 2014)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>selon GBIF       (26 mai 2014) :
 Heteronychus beiranus Péringuey, 1908
 Heteronychus oryzae Britton, 1959
 Heteronychus pseudocongoensis Ferreira, 1965
@@ -546,9 +560,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'aire de répartition d'Heteronychus mosambicus couvre les régions tropicales d'Afrique : Burkina Faso, Nigeria, Soudan, Éthiopie, Guinée, Congo, Mozambique, Zimbabwe, Tanzanie, Sierra Leone, Sénégal, Tchad[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aire de répartition d'Heteronychus mosambicus couvre les régions tropicales d'Afrique : Burkina Faso, Nigeria, Soudan, Éthiopie, Guinée, Congo, Mozambique, Zimbabwe, Tanzanie, Sierra Leone, Sénégal, Tchad.
 </t>
         </is>
       </c>
